--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3140.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3140.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9628717694974842</v>
+        <v>1.122445106506348</v>
       </c>
       <c r="B1">
-        <v>1.857558895244033</v>
+        <v>1.297770500183105</v>
       </c>
       <c r="C1">
-        <v>4.017467822248983</v>
+        <v>1.657012343406677</v>
       </c>
       <c r="D1">
-        <v>4.458119689762829</v>
+        <v>3.56758975982666</v>
       </c>
       <c r="E1">
-        <v>1.448994567204475</v>
+        <v>3.809174299240112</v>
       </c>
     </row>
   </sheetData>
